--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp coding\taskmaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8318E53A-A56D-4EF8-8346-43F692AB9EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFA8C6A-CD36-4B2C-AA80-2C3E7EE93C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{2A75A694-FA54-41AA-957C-F0B51B8201E0}"/>
   </bookViews>
@@ -595,10 +595,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mmm\ yy"/>
-    <numFmt numFmtId="165" formatCode="dd\ mmm\ yy"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -634,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -643,15 +639,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -971,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E90D074-F720-46DB-B772-EDC5FED54533}">
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,10 +1064,10 @@
         <v>79</v>
       </c>
       <c r="E2" s="2">
-        <v>44115</v>
+        <v>43841</v>
       </c>
       <c r="F2" s="2">
-        <v>44119</v>
+        <v>43845</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>24</v>
@@ -1112,10 +1099,10 @@
         <v>28</v>
       </c>
       <c r="E3" s="2">
-        <v>44113</v>
+        <v>43839</v>
       </c>
       <c r="F3" s="2">
-        <v>44122</v>
+        <v>43848</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>29</v>
@@ -1147,10 +1134,10 @@
         <v>21</v>
       </c>
       <c r="E4" s="2">
-        <v>44114</v>
+        <v>43840</v>
       </c>
       <c r="F4" s="2">
-        <v>44122</v>
+        <v>43848</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>44</v>
@@ -1182,10 +1169,10 @@
         <v>23</v>
       </c>
       <c r="E5" s="2">
-        <v>44115</v>
+        <v>43841</v>
       </c>
       <c r="F5" s="2">
-        <v>44124</v>
+        <v>43850</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>45</v>
@@ -1220,10 +1207,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="2">
-        <v>44109</v>
+        <v>43835</v>
       </c>
       <c r="F6" s="2">
-        <v>44127</v>
+        <v>43853</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>46</v>
@@ -1258,10 +1245,10 @@
         <v>78</v>
       </c>
       <c r="E7" s="2">
-        <v>44114</v>
+        <v>43840</v>
       </c>
       <c r="F7" s="2">
-        <v>44122</v>
+        <v>43848</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>131</v>
@@ -1296,10 +1283,10 @@
         <v>23</v>
       </c>
       <c r="E8" s="2">
-        <v>44115</v>
+        <v>43841</v>
       </c>
       <c r="F8" s="2">
-        <v>44124</v>
+        <v>43850</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>129</v>
@@ -1334,10 +1321,10 @@
         <v>22</v>
       </c>
       <c r="E9" s="2">
-        <v>44114</v>
+        <v>43840</v>
       </c>
       <c r="F9" s="2">
-        <v>44122</v>
+        <v>43848</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>47</v>
@@ -1372,10 +1359,10 @@
         <v>79</v>
       </c>
       <c r="E10" s="2">
-        <v>44115</v>
+        <v>43841</v>
       </c>
       <c r="F10" s="2">
-        <v>44124</v>
+        <v>43850</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>48</v>
@@ -1410,10 +1397,10 @@
         <v>28</v>
       </c>
       <c r="E11" s="2">
-        <v>44109</v>
+        <v>43835</v>
       </c>
       <c r="F11" s="2">
-        <v>44127</v>
+        <v>43853</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>49</v>
@@ -1448,10 +1435,10 @@
         <v>82</v>
       </c>
       <c r="E12" s="2">
-        <v>44114</v>
+        <v>43840</v>
       </c>
       <c r="F12" s="2">
-        <v>44122</v>
+        <v>43848</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>51</v>
@@ -1480,7 +1467,7 @@
       <c r="R12" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="S12" s="4" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1498,10 +1485,10 @@
         <v>77</v>
       </c>
       <c r="E13" s="2">
-        <v>44115</v>
+        <v>43841</v>
       </c>
       <c r="F13" s="2">
-        <v>44124</v>
+        <v>43850</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>52</v>
@@ -1530,7 +1517,7 @@
       <c r="R13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1548,10 +1535,10 @@
         <v>81</v>
       </c>
       <c r="E14" s="2">
-        <v>44109</v>
+        <v>43835</v>
       </c>
       <c r="F14" s="2">
-        <v>44127</v>
+        <v>43853</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>53</v>
@@ -1580,7 +1567,7 @@
       <c r="R14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="4" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1598,10 +1585,10 @@
         <v>77</v>
       </c>
       <c r="E15" s="2">
-        <v>44113</v>
+        <v>43839</v>
       </c>
       <c r="F15" s="2">
-        <v>44119</v>
+        <v>43845</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>54</v>
@@ -1630,7 +1617,7 @@
       <c r="R15" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1648,10 +1635,10 @@
         <v>81</v>
       </c>
       <c r="E16" s="2">
-        <v>44114</v>
+        <v>43840</v>
       </c>
       <c r="F16" s="2">
-        <v>44122</v>
+        <v>43848</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>55</v>
@@ -1680,7 +1667,7 @@
       <c r="R16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1698,10 +1685,10 @@
         <v>83</v>
       </c>
       <c r="E17" s="2">
-        <v>44115</v>
+        <v>43841</v>
       </c>
       <c r="F17" s="2">
-        <v>44124</v>
+        <v>43850</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>56</v>
@@ -1730,7 +1717,7 @@
       <c r="R17" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S17" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1748,10 +1735,10 @@
         <v>77</v>
       </c>
       <c r="E18" s="2">
-        <v>44109</v>
+        <v>43835</v>
       </c>
       <c r="F18" s="2">
-        <v>44127</v>
+        <v>43853</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>57</v>
@@ -1780,7 +1767,7 @@
       <c r="R18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="S18" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1798,10 +1785,10 @@
         <v>83</v>
       </c>
       <c r="E19" s="2">
-        <v>44113</v>
+        <v>43839</v>
       </c>
       <c r="F19" s="2">
-        <v>44119</v>
+        <v>43845</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>58</v>
@@ -1830,7 +1817,7 @@
       <c r="R19" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="S19" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1845,10 +1832,10 @@
         <v>76</v>
       </c>
       <c r="E20" s="2">
-        <v>44114</v>
+        <v>43840</v>
       </c>
       <c r="F20" s="2">
-        <v>44122</v>
+        <v>43848</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>59</v>
@@ -1877,7 +1864,7 @@
       <c r="R20" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="S20" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1895,10 +1882,10 @@
         <v>78</v>
       </c>
       <c r="E21" s="2">
-        <v>44115</v>
+        <v>43841</v>
       </c>
       <c r="F21" s="2">
-        <v>44124</v>
+        <v>43850</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>60</v>
@@ -1927,7 +1914,7 @@
       <c r="R21" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="S21" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1945,10 +1932,10 @@
         <v>82</v>
       </c>
       <c r="E22" s="2">
-        <v>44109</v>
+        <v>43835</v>
       </c>
       <c r="F22" s="2">
-        <v>44127</v>
+        <v>43853</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>61</v>
@@ -1977,7 +1964,7 @@
       <c r="R22" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S22" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1995,10 +1982,10 @@
         <v>78</v>
       </c>
       <c r="E23" s="2">
-        <v>44114</v>
+        <v>43840</v>
       </c>
       <c r="F23" s="2">
-        <v>44122</v>
+        <v>43848</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>62</v>
@@ -2027,7 +2014,7 @@
       <c r="R23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="S23" s="4" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2045,10 +2032,10 @@
         <v>81</v>
       </c>
       <c r="E24" s="2">
-        <v>44115</v>
+        <v>43841</v>
       </c>
       <c r="F24" s="2">
-        <v>44124</v>
+        <v>43850</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>63</v>
@@ -2077,7 +2064,7 @@
       <c r="R24" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="S24" s="4" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2095,10 +2082,10 @@
         <v>78</v>
       </c>
       <c r="E25" s="2">
-        <v>44109</v>
+        <v>43835</v>
       </c>
       <c r="F25" s="2">
-        <v>44127</v>
+        <v>43853</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>64</v>
@@ -2127,7 +2114,7 @@
       <c r="R25" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="S25" s="4" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2145,10 +2132,10 @@
         <v>80</v>
       </c>
       <c r="E26" s="2">
-        <v>44113</v>
+        <v>43839</v>
       </c>
       <c r="F26" s="2">
-        <v>44119</v>
+        <v>43845</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>66</v>
@@ -2177,7 +2164,7 @@
       <c r="R26" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="S26" s="7" t="s">
+      <c r="S26" s="4" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2195,10 +2182,10 @@
         <v>78</v>
       </c>
       <c r="E27" s="2">
-        <v>44114</v>
+        <v>43840</v>
       </c>
       <c r="F27" s="2">
-        <v>44122</v>
+        <v>43848</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>67</v>
@@ -2227,7 +2214,7 @@
       <c r="R27" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="S27" s="4" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2245,10 +2232,10 @@
         <v>77</v>
       </c>
       <c r="E28" s="2">
-        <v>44115</v>
+        <v>43841</v>
       </c>
       <c r="F28" s="2">
-        <v>44124</v>
+        <v>43850</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>65</v>
@@ -2277,7 +2264,7 @@
       <c r="R28" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="S28" s="7" t="s">
+      <c r="S28" s="4" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2295,10 +2282,10 @@
         <v>81</v>
       </c>
       <c r="E29" s="2">
-        <v>44109</v>
+        <v>43835</v>
       </c>
       <c r="F29" s="2">
-        <v>44127</v>
+        <v>43853</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>68</v>
@@ -2327,7 +2314,7 @@
       <c r="R29" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="S29" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2345,10 +2332,10 @@
         <v>81</v>
       </c>
       <c r="E30" s="2">
-        <v>44113</v>
+        <v>43839</v>
       </c>
       <c r="F30" s="2">
-        <v>44119</v>
+        <v>43845</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>69</v>
@@ -2377,7 +2364,7 @@
       <c r="R30" s="3">
         <v>44409</v>
       </c>
-      <c r="S30" s="7" t="s">
+      <c r="S30" s="4" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2395,10 +2382,10 @@
         <v>82</v>
       </c>
       <c r="E31" s="2">
-        <v>44114</v>
+        <v>43840</v>
       </c>
       <c r="F31" s="2">
-        <v>44122</v>
+        <v>43848</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>70</v>
@@ -2427,7 +2414,7 @@
       <c r="R31" s="3">
         <v>44470</v>
       </c>
-      <c r="S31" s="7" t="s">
+      <c r="S31" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2445,10 +2432,10 @@
         <v>77</v>
       </c>
       <c r="E32" s="2">
-        <v>44115</v>
+        <v>43841</v>
       </c>
       <c r="F32" s="2">
-        <v>44124</v>
+        <v>43850</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>71</v>
@@ -2477,7 +2464,7 @@
       <c r="R32" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="S32" s="7" t="s">
+      <c r="S32" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2495,10 +2482,10 @@
         <v>83</v>
       </c>
       <c r="E33" s="2">
-        <v>44109</v>
+        <v>43835</v>
       </c>
       <c r="F33" s="2">
-        <v>44127</v>
+        <v>43853</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>72</v>
@@ -2527,7 +2514,7 @@
       <c r="R33" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="S33" s="7" t="s">
+      <c r="S33" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2545,10 +2532,10 @@
         <v>81</v>
       </c>
       <c r="E34" s="2">
-        <v>44114</v>
+        <v>43840</v>
       </c>
       <c r="F34" s="2">
-        <v>44122</v>
+        <v>43848</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>73</v>
@@ -2577,7 +2564,7 @@
       <c r="R34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="S34" s="7" t="s">
+      <c r="S34" s="4" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2595,10 +2582,10 @@
         <v>77</v>
       </c>
       <c r="E35" s="2">
-        <v>44115</v>
+        <v>43841</v>
       </c>
       <c r="F35" s="2">
-        <v>44124</v>
+        <v>43850</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>74</v>
@@ -2627,7 +2614,7 @@
       <c r="R35" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S35" s="7" t="s">
+      <c r="S35" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2645,10 +2632,10 @@
         <v>81</v>
       </c>
       <c r="E36" s="2">
-        <v>44109</v>
+        <v>43835</v>
       </c>
       <c r="F36" s="2">
-        <v>44127</v>
+        <v>43853</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>75</v>
@@ -2677,154 +2664,9 @@
       <c r="R36" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="S36" s="7" t="s">
+      <c r="S36" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I42" s="5"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I43" s="5"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-    </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-    </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I56" s="5"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-    </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-    </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I59" s="5"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
